--- a/IT Returns/Shravani Tarlekar/Computation AY 2015-16 and Ay  2016-17.xlsx
+++ b/IT Returns/Shravani Tarlekar/Computation AY 2015-16 and Ay  2016-17.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VISHAL\Desktop\Data0\IT Returns\Shravani Tarlekar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340" activeTab="3"/>
   </bookViews>
@@ -30,7 +35,7 @@
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="sd">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,11 +239,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +474,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
@@ -557,47 +562,47 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -618,7 +623,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Home"/>
@@ -1128,21 +1133,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1152,18 +1157,18 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -1178,22 +1183,22 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1213,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1228,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -1238,7 +1243,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -1253,7 +1258,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
@@ -1268,7 +1273,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1283,24 +1288,24 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="54" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="9" t="s">
         <v>1</v>
       </c>
@@ -1315,35 +1320,35 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="G14" s="3"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="23">
         <v>240000</v>
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="G16" s="24" t="s">
         <v>39</v>
       </c>
@@ -1352,34 +1357,34 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="G17" s="23"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="23">
         <f>H16</f>
         <v>240000</v>
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
@@ -1388,42 +1393,42 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="G20" s="23"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="G21" s="23"/>
       <c r="H21" s="25">
         <f>H19</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="23"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="26" t="s">
@@ -1431,7 +1436,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1439,13 +1444,13 @@
       <c r="G24" s="23"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="G25" s="24">
         <v>-2000</v>
       </c>
@@ -1453,25 +1458,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="G26" s="23"/>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="23"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>47</v>
       </c>
@@ -1483,13 +1488,13 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="G29" s="28" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -1505,7 +1510,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>49</v>
       </c>
@@ -1517,21 +1522,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="G32" s="23"/>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="24"/>
@@ -1541,6 +1546,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C4:G4"/>
@@ -1553,14 +1566,6 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0" top="0.47" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1568,44 +1573,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1613,7 +1618,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1679,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1691,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1715,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1722,7 +1727,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="31"/>
@@ -1730,7 +1735,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1742,14 +1747,14 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="31"/>
@@ -1757,7 +1762,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="32">
@@ -1776,18 +1781,18 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1"/>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="55" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1795,7 +1800,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1829,7 +1834,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -1850,7 +1855,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1866,7 +1871,7 @@
         <v>159300</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1878,7 +1883,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1893,7 +1898,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1901,7 +1906,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +1917,7 @@
       <c r="E28" s="39"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1924,7 +1929,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1936,7 +1941,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1948,7 +1953,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1960,35 +1965,35 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="E33" s="39"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="E34" s="39"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="E35" s="39"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="E36" s="39"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1996,7 +2001,7 @@
       <c r="E37" s="39"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="10">
@@ -2014,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickTop="1"/>
+    <row r="39" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
@@ -2027,14 +2032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2044,18 +2049,18 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -2070,22 +2075,22 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -2100,7 +2105,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
@@ -2115,7 +2120,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2135,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2150,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
@@ -2160,7 +2165,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2175,24 +2180,24 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="54" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="9" t="s">
         <v>1</v>
       </c>
@@ -2207,35 +2212,35 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="G14" s="3"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="23">
         <v>264000</v>
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="G16" s="24" t="s">
         <v>39</v>
       </c>
@@ -2244,34 +2249,34 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="G17" s="23"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="G18" s="23">
         <f>H16</f>
         <v>264000</v>
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="G19" s="24" t="s">
         <v>39</v>
       </c>
@@ -2280,42 +2285,42 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="G20" s="23"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="G21" s="23"/>
       <c r="H21" s="25">
         <f>H19</f>
         <v>264000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="23"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="26" t="s">
@@ -2323,7 +2328,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2331,13 +2336,13 @@
       <c r="G24" s="23"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="G25" s="24">
         <v>-2000</v>
       </c>
@@ -2345,25 +2350,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="G26" s="23"/>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="G27" s="23"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>47</v>
       </c>
@@ -2375,13 +2380,13 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="G29" s="28" t="s">
         <v>39</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2397,7 +2402,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>49</v>
       </c>
@@ -2409,21 +2414,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="G32" s="23"/>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="24"/>
@@ -2433,6 +2438,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C4:G4"/>
@@ -2445,14 +2458,6 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0" top="0.47" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2460,45 +2465,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2506,7 +2511,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -2526,12 +2531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="59">
+      <c r="C6" s="47">
         <f>'FS AY 2015-16'!C6*110/100</f>
         <v>35970</v>
       </c>
@@ -2544,12 +2549,12 @@
         <v>478500</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="59">
+      <c r="C7" s="47">
         <f>'FS AY 2015-16'!C7*110/100</f>
         <v>87271.8</v>
       </c>
@@ -2559,12 +2564,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="59">
+      <c r="C8" s="47">
         <f>'FS AY 2015-16'!C8*110/100</f>
         <v>16500</v>
       </c>
@@ -2572,12 +2577,12 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="59">
+      <c r="C9" s="47">
         <f>'FS AY 2015-16'!C9*110/100</f>
         <v>26400</v>
       </c>
@@ -2585,12 +2590,12 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="59">
+      <c r="C10" s="47">
         <f>'FS AY 2015-16'!C10*110/100</f>
         <v>4358.2</v>
       </c>
@@ -2598,12 +2603,12 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="59">
+      <c r="C11" s="47">
         <f>'FS AY 2015-16'!C11*110/100</f>
         <v>15400</v>
       </c>
@@ -2611,12 +2616,12 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="59">
+      <c r="C12" s="47">
         <f>'FS AY 2015-16'!C12*110/100</f>
         <v>28600</v>
       </c>
@@ -2624,20 +2629,20 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="59">
+      <c r="C14" s="47">
         <f>'FS AY 2015-16'!C14*110/100</f>
         <v>264000</v>
       </c>
@@ -2645,7 +2650,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -2653,18 +2658,18 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <f>SUM(C6:C16)</f>
         <v>478500</v>
       </c>
@@ -2680,18 +2685,18 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1"/>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="55" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2699,7 +2704,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2734,7 +2739,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2749,13 +2754,13 @@
       <c r="D23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="45">
         <f>'FS AY 2015-16'!F24</f>
         <v>159300</v>
       </c>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2766,7 +2771,7 @@
         <v>298350</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2775,14 +2780,14 @@
         <v>457650</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="46">
         <f>E25*10/100</f>
         <v>45765</v>
       </c>
@@ -2791,20 +2796,20 @@
         <v>411885</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="45">
         <f>'FS AY 2015-16'!F26</f>
         <v>234000</v>
       </c>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>33150</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2829,14 +2834,14 @@
         <v>267150</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="46">
         <f>E29*10/100</f>
         <v>26715</v>
       </c>
@@ -2845,13 +2850,13 @@
         <v>240435</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2864,7 +2869,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2877,7 +2882,7 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2890,7 +2895,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2903,14 +2908,14 @@
         <v>15360</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2918,7 +2923,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="31"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="10">
@@ -2927,7 +2932,7 @@
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="56">
+      <c r="F38" s="44">
         <f>SUM(F22:F37)</f>
         <v>686760</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickTop="1"/>
+    <row r="39" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
